--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -94,16 +94,13 @@
     <t xml:space="preserve">chunked</t>
   </si>
   <si>
-    <t xml:space="preserve">concat</t>
+    <t xml:space="preserve">count_by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete</t>
   </si>
   <si>
     <t xml:space="preserve">diff</t>
@@ -420,48 +417,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -654,937 +655,929 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>20</v>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>25</v>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>25</v>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>20</v>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>25</v>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>20</v>
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>25</v>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>20</v>
+      <c r="I18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>25</v>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="0" t="s">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>20</v>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>25</v>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="0" t="s">
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>20</v>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>25</v>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>25</v>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>20</v>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>25</v>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="0" t="s">
+      <c r="I29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="0" t="s">
+      <c r="I30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>20</v>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>25</v>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>25</v>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>20</v>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>25</v>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>25</v>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>20</v>
+      <c r="E39" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>25</v>
+      <c r="H40" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>25</v>
+      <c r="H41" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>20</v>
+      <c r="B56" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>25</v>
+      <c r="E57" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>25</v>
+      <c r="H58" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>25</v>
+      <c r="H59" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>25</v>
+      <c r="B60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>20</v>
+      <c r="B61" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>25</v>
+      <c r="B62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="0" t="s">
+      <c r="B63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" s="0" t="s">
-        <v>20</v>
+      <c r="B64" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="B65" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="C69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L70" s="0" t="s">
-        <v>86</v>
+      <c r="H70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H71" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>86</v>
+      <c r="C71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L72" s="0" t="s">
-        <v>86</v>
+      <c r="H72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>86</v>
+      <c r="C73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>86</v>
+      <c r="B74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>86</v>
+      <c r="B76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
+      <c r="B77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:D1"/>

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -658,9 +658,9 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -819,7 +819,7 @@
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1048,7 +1048,7 @@
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1230,7 +1230,7 @@
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H43" s="1" t="s">

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -658,9 +658,9 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -819,7 +819,7 @@
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1048,7 +1048,7 @@
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1230,7 +1230,7 @@
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H43" s="1" t="s">

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -85,6 +85,9 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">all</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">diff</t>
@@ -658,9 +658,9 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,21 +754,18 @@
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -779,7 +776,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -790,7 +787,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -798,7 +795,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -809,10 +806,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,13 +817,13 @@
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,7 +847,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,16 +857,13 @@
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -880,16 +874,13 @@
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -898,10 +889,10 @@
         <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,10 +920,10 @@
         <v>35</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,13 +962,13 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,10 +1010,10 @@
         <v>20</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,10 +1021,10 @@
         <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,13 +1040,13 @@
         <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,10 +1115,10 @@
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,16 +1126,13 @@
         <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,10 +1151,10 @@
         <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,16 +1162,13 @@
         <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,7 +1187,7 @@
         <v>56</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1195,7 @@
         <v>57</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,7 +1203,7 @@
         <v>58</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,7 +1216,7 @@
         <v>60</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>20</v>
@@ -1298,7 +1283,7 @@
         <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>20</v>
@@ -1341,7 +1326,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,7 +1334,7 @@
         <v>74</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,7 +1342,7 @@
         <v>75</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,7 +1350,7 @@
         <v>76</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,7 +1358,7 @@
         <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>20</v>
@@ -1384,7 +1369,7 @@
         <v>78</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,7 +1377,7 @@
         <v>79</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>20</v>
@@ -1426,7 +1411,7 @@
         <v>81</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1419,7 @@
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -658,9 +658,9 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -819,12 +819,11 @@
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -860,12 +859,11 @@
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -877,23 +875,21 @@
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -660,7 +660,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1038,12 +1038,11 @@
       <c r="E27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -1069,23 +1068,21 @@
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -660,7 +660,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -960,10 +960,7 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -660,7 +660,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1000,7 +1000,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>21</v>

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -660,7 +660,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1045,19 +1045,13 @@
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>20</v>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -660,7 +660,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -895,19 +895,13 @@
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -660,7 +660,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -934,12 +934,11 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
         <v>20</v>
       </c>
@@ -965,12 +964,11 @@
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
         <v>20</v>
       </c>

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -660,7 +660,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="K21" activeCellId="1" sqref="K22 K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,12 +939,6 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -969,12 +963,6 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -660,7 +660,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K21" activeCellId="1" sqref="K22 K21"/>
+      <selection pane="bottomLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -909,12 +909,11 @@
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -660,7 +660,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1353,21 +1353,14 @@
       <c r="B63" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">Slice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EqMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OrdMap</t>
   </si>
   <si>
     <t xml:space="preserve">EqSet</t>
@@ -348,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -384,13 +378,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -417,7 +404,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,14 +431,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -655,12 +634,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -673,9 +652,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,14 +680,12 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -733,738 +710,702 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="10"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
-        <v>83</v>
+      <c r="A68" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,58 +1413,56 @@
         <v>14</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -639,14 +639,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.55"/>

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -645,8 +645,8 @@
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.55"/>

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="91">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -76,10 +76,10 @@
     <t xml:space="preserve">add</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">all</t>
@@ -637,9 +637,9 @@
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -722,14 +722,11 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,10 +734,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,10 +745,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +756,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,10 +764,10 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,7 +775,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,10 +783,10 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,7 +794,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,7 +802,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,35 +810,29 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,7 +840,7 @@
         <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,10 +848,10 @@
         <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -868,7 +859,7 @@
         <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,49 +867,40 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,10 +908,10 @@
         <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,13 +919,13 @@
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,10 +933,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,7 +944,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,10 +952,10 @@
         <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,10 +963,10 @@
         <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,7 +974,7 @@
         <v>44</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,7 +982,7 @@
         <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,7 +990,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,10 +998,10 @@
         <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,24 +1009,21 @@
         <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,10 +1031,10 @@
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,24 +1042,21 @@
         <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,10 +1064,10 @@
         <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,7 +1075,7 @@
         <v>54</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,7 +1083,7 @@
         <v>55</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,7 +1091,7 @@
         <v>56</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,10 +1104,10 @@
         <v>58</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,7 +1115,7 @@
         <v>59</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,7 +1123,7 @@
         <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,7 +1131,7 @@
         <v>61</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,7 +1139,7 @@
         <v>62</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,7 +1147,7 @@
         <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,7 +1155,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,7 +1163,7 @@
         <v>65</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,10 +1171,10 @@
         <v>66</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,7 +1182,7 @@
         <v>67</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,7 +1190,7 @@
         <v>68</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,7 +1198,7 @@
         <v>69</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,7 +1206,7 @@
         <v>70</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,7 +1214,7 @@
         <v>71</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,7 +1222,7 @@
         <v>72</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,7 +1230,7 @@
         <v>73</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,7 +1238,7 @@
         <v>74</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,10 +1246,10 @@
         <v>75</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,7 +1257,7 @@
         <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,24 +1265,21 @@
         <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,7 +1287,7 @@
         <v>79</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,7 +1295,7 @@
         <v>80</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/trait-matrix.xlsx
+++ b/trait-matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -43,9 +43,6 @@
     <t xml:space="preserve">Map</t>
   </si>
   <si>
-    <t xml:space="preserve">Set</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -65,12 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Slice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EqSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OrdSet</t>
   </si>
   <si>
     <t xml:space="preserve">add</t>
@@ -634,12 +625,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -652,9 +643,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16379" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,762 +669,739 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2"/>
     </row>
     <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
